--- a/biology/Médecine/Bébé_sur_mesure/Bébé_sur_mesure.xlsx
+++ b/biology/Médecine/Bébé_sur_mesure/Bébé_sur_mesure.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B%C3%A9b%C3%A9_sur_mesure</t>
+          <t>Bébé_sur_mesure</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un bébé sur mesure (ou bébé à la carte) est un enfant conçu par fécondation in vitro et sélectionné génétiquement dans le but d’assurer la présence ou l’absence d’un gène particulier ou d’une caractéristique particulière. Il est parfois sélectionné pour être un bébé-médicament.
-C’est en Californie que le docteur Jeffrey Steinberg fait de la sélection des embryons un business pour la première fois avec la création d’un programme de sélection génétique en fondant le New York Fertility Institute en 1986. L'institut propose aux couples des fécondations in vitro et monnaye jusqu'à 40 000 dollars le don d'ovocytes[1].
-Le livre « Bébés sur mesure », publié par Blanche Streb début 2018, décrit les récentes évolutions scientifiques et médicales dans le domaine de la procréation artificielle, et analyse les enjeux éthiques de ces évolutions[2].
+C’est en Californie que le docteur Jeffrey Steinberg fait de la sélection des embryons un business pour la première fois avec la création d’un programme de sélection génétique en fondant le New York Fertility Institute en 1986. L'institut propose aux couples des fécondations in vitro et monnaye jusqu'à 40 000 dollars le don d'ovocytes.
+Le livre « Bébés sur mesure », publié par Blanche Streb début 2018, décrit les récentes évolutions scientifiques et médicales dans le domaine de la procréation artificielle, et analyse les enjeux éthiques de ces évolutions.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B%C3%A9b%C3%A9_sur_mesure</t>
+          <t>Bébé_sur_mesure</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,10 +525,12 @@
           <t>Implications éthiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Certains auteurs font valoir que si les technologies de modification génétiques sont un jour sécuritaires et efficaces, l’autonomie des parents implique qu’on leur laisse un maximum de latitude dans le choix des caractéristiques génétiques pour leurs enfants.
-À l’opposé, des éthiciens estiment que la conception de bébés sur mesure et l’augmentation des capacités soulèvent des questions éthiques et sociales fondamentales qui devraient être débattues dans l’espace public[3].
+À l’opposé, des éthiciens estiment que la conception de bébés sur mesure et l’augmentation des capacités soulèvent des questions éthiques et sociales fondamentales qui devraient être débattues dans l’espace public.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B%C3%A9b%C3%A9_sur_mesure</t>
+          <t>Bébé_sur_mesure</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>CRISPR-Cas9</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La génétique moléculaire a fait un grand progrès avec la technique CRISPR-Cas9, suggérant la possibilité de modifier le génome des cellules humaines[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La génétique moléculaire a fait un grand progrès avec la technique CRISPR-Cas9, suggérant la possibilité de modifier le génome des cellules humaines.
 </t>
         </is>
       </c>
